--- a/biology/Botanique/Gonatobotrys/Gonatobotrys.xlsx
+++ b/biology/Botanique/Gonatobotrys/Gonatobotrys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Gonatobotrys ressemble beaucoup à Botrytis cinerea par le type de spores bien que ce dernier semble beaucoup plus envahissant lors de l'analyse.
 </t>
@@ -511,7 +523,9 @@
           <t>Maladie et dégâts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon n'occasionne aucune maladie ni dégât sur la graine. C'est en fait un saprophyte et pas un parasite.
 Aucun symptôme sur de jeunes plantules.
@@ -543,7 +557,9 @@
           <t>Espèces concernées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Principalement :
 Helianthus annuus (Tournesol)
@@ -575,7 +591,9 @@
           <t>Localisation sur la graine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sans doute sous forme de spores en surface des téguments
 </t>
@@ -606,7 +624,9 @@
           <t>Fréquence d'apparition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Rarement plus de 5 % de grains infectés chez le Tournesol
 </t>
@@ -637,7 +657,9 @@
           <t>Méthodes d'analyse et identification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Méthode du buvard
 Les colonies sont claires, très fines et plutôt rases. Les filaments sont principalement des conidiophores intercalaires renflés à intervalles réguliers ainsi qu'à l'apex. C'est sur ces renflements qu'apparaissent des bouquets de spores.
